--- a/getting_started_data_sets/seasoanlity data.xlsx
+++ b/getting_started_data_sets/seasoanlity data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Tableau\Tableau-Learning\Tableau Workshop - Getting Started\getting_started_data_sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Tableau\Tableau-Workshop-Getting-Started\getting_started_data_sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B8323-CF1F-4F6B-8F47-F1E5A5A310DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46203488-C53A-49BB-A97C-37230E85DE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="84" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="84" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="20">
   <si>
     <t>Category</t>
   </si>
@@ -2784,7 +2785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642BE59C-6685-451A-A31E-5DB42416BEBB}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E145"/>
     </sheetView>
   </sheetViews>
@@ -5150,4 +5151,2049 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3433CE-4BB6-4F3D-8AE4-BFFC047AF47B}">
+  <dimension ref="A1:D145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34463.752999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42761.2958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="1">
+        <v>69799.470700000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="1">
+        <v>81804.600699999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33526.727500000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
+      <c r="D7" s="1">
+        <v>47264.174099999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2014</v>
+      </c>
+      <c r="D8" s="1">
+        <v>64983.663200000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="1">
+        <v>76653.914799999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2012</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30908.00836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="1">
+        <v>47410.505239999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2014</v>
+      </c>
+      <c r="D12" s="1">
+        <v>52397.643479999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2015</v>
+      </c>
+      <c r="D13" s="1">
+        <v>94815.170159999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2012</v>
+      </c>
+      <c r="D14" s="1">
+        <v>35799.387499999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37635.393400000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2015</v>
+      </c>
+      <c r="D16" s="1">
+        <v>57702.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="D17" s="1">
+        <v>59117.944300000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>2013</v>
+      </c>
+      <c r="D18" s="1">
+        <v>24297.354299999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2012</v>
+      </c>
+      <c r="D19" s="1">
+        <v>26135.029299999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="1">
+        <v>51552.877999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>2015</v>
+      </c>
+      <c r="D21" s="1">
+        <v>55184.021999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>2013</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36922.214379999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2012</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41783.506479999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+      <c r="D24" s="1">
+        <v>56568.828099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>2015</v>
+      </c>
+      <c r="D25" s="1">
+        <v>71950.503559999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>2012</v>
+      </c>
+      <c r="D26" s="1">
+        <v>40277.274799999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2013</v>
+      </c>
+      <c r="D27" s="1">
+        <v>55082.330699999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="1">
+        <v>65323.292800000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2015</v>
+      </c>
+      <c r="D29" s="1">
+        <v>89705.381500000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>2012</v>
+      </c>
+      <c r="D30" s="1">
+        <v>31578.560600000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="1">
+        <v>53721.2811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>2014</v>
+      </c>
+      <c r="D32" s="1">
+        <v>62007.873500000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="1">
+        <v>77576.268100000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>2013</v>
+      </c>
+      <c r="D34" s="1">
+        <v>54273.159359999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>2012</v>
+      </c>
+      <c r="D35" s="1">
+        <v>63890.566659999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>2014</v>
+      </c>
+      <c r="D36" s="1">
+        <v>71262.863819999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2015</v>
+      </c>
+      <c r="D37" s="1">
+        <v>95819.123019999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>2012</v>
+      </c>
+      <c r="D38" s="1">
+        <v>30689.545099999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>2014</v>
+      </c>
+      <c r="D39" s="1">
+        <v>54586.982300000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>2013</v>
+      </c>
+      <c r="D40" s="1">
+        <v>54701.872100000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>2015</v>
+      </c>
+      <c r="D41" s="1">
+        <v>70550.859299999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>2013</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43886.059500000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2012</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45562.666899999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>2014</v>
+      </c>
+      <c r="D44" s="1">
+        <v>55765.708500000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>2015</v>
+      </c>
+      <c r="D45" s="1">
+        <v>81371.834000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>2012</v>
+      </c>
+      <c r="D46" s="1">
+        <v>38080.751179999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>2013</v>
+      </c>
+      <c r="D47" s="1">
+        <v>62464.337919999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>2014</v>
+      </c>
+      <c r="D48" s="1">
+        <v>67468.626040000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>2015</v>
+      </c>
+      <c r="D49" s="1">
+        <v>90849.168000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>2012</v>
+      </c>
+      <c r="D50" s="1">
+        <v>49768.671999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>2013</v>
+      </c>
+      <c r="D51" s="1">
+        <v>62939.028100000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>2014</v>
+      </c>
+      <c r="D52" s="1">
+        <v>74370.849000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>2015</v>
+      </c>
+      <c r="D53" s="1">
+        <v>98312.103900000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>2012</v>
+      </c>
+      <c r="D54" s="1">
+        <v>49731.471599999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>2013</v>
+      </c>
+      <c r="D55" s="1">
+        <v>61063.337299999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>2014</v>
+      </c>
+      <c r="D56" s="1">
+        <v>74756.063699999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>2015</v>
+      </c>
+      <c r="D57" s="1">
+        <v>97974.888999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>2012</v>
+      </c>
+      <c r="D58" s="1">
+        <v>58728.1852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="1">
+        <v>84362.525840000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>2015</v>
+      </c>
+      <c r="D60" s="1">
+        <v>92114.053239999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>2014</v>
+      </c>
+      <c r="D61" s="1">
+        <v>111371.652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>2012</v>
+      </c>
+      <c r="D62" s="1">
+        <v>76584.652400000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>2013</v>
+      </c>
+      <c r="D63" s="1">
+        <v>81480.742100000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>2014</v>
+      </c>
+      <c r="D64" s="1">
+        <v>115250.54150000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>2015</v>
+      </c>
+      <c r="D65" s="1">
+        <v>136123.1121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>2012</v>
+      </c>
+      <c r="D66" s="1">
+        <v>61792.780400000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>2013</v>
+      </c>
+      <c r="D67" s="1">
+        <v>75845.826100000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>2014</v>
+      </c>
+      <c r="D68" s="1">
+        <v>111488.61040000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>2015</v>
+      </c>
+      <c r="D69" s="1">
+        <v>120339.9786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>2012</v>
+      </c>
+      <c r="D70" s="1">
+        <v>69194.110719999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>2013</v>
+      </c>
+      <c r="D71" s="1">
+        <v>98849.130220000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>2015</v>
+      </c>
+      <c r="D72" s="1">
+        <v>145350.9724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>2014</v>
+      </c>
+      <c r="D73" s="1">
+        <v>169780.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>2012</v>
+      </c>
+      <c r="D74" s="1">
+        <v>31382.9627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>2013</v>
+      </c>
+      <c r="D75" s="1">
+        <v>41491.391000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>2014</v>
+      </c>
+      <c r="D76" s="1">
+        <v>71853.899099999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>2015</v>
+      </c>
+      <c r="D77" s="1">
+        <v>82344.304999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>2012</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42806.548999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>2013</v>
+      </c>
+      <c r="D79" s="1">
+        <v>46346.410900000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>2014</v>
+      </c>
+      <c r="D80" s="1">
+        <v>70291.065499999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>2015</v>
+      </c>
+      <c r="D81" s="1">
+        <v>76971.382700000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>2012</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44245.372920000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>2013</v>
+      </c>
+      <c r="D83" s="1">
+        <v>57398.983220000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>2014</v>
+      </c>
+      <c r="D84" s="1">
+        <v>87783.987399999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>2015</v>
+      </c>
+      <c r="D85" s="1">
+        <v>99389.99278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>2012</v>
+      </c>
+      <c r="D86" s="1">
+        <v>68000.403699999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>2013</v>
+      </c>
+      <c r="D87" s="1">
+        <v>84644.442999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>2014</v>
+      </c>
+      <c r="D88" s="1">
+        <v>112295.95299999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>2015</v>
+      </c>
+      <c r="D89" s="1">
+        <v>126283.8429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>2012</v>
+      </c>
+      <c r="D90" s="1">
+        <v>58389.781600000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>2014</v>
+      </c>
+      <c r="D91" s="1">
+        <v>93149.769</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>2013</v>
+      </c>
+      <c r="D92" s="1">
+        <v>97259.772599999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>2015</v>
+      </c>
+      <c r="D93" s="1">
+        <v>155430.76920000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>2012</v>
+      </c>
+      <c r="D94" s="1">
+        <v>81673.098419999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>2014</v>
+      </c>
+      <c r="D95" s="1">
+        <v>121043.06736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>2013</v>
+      </c>
+      <c r="D96" s="1">
+        <v>121238.72678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>2015</v>
+      </c>
+      <c r="D97" s="1">
+        <v>174905.33025999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>2012</v>
+      </c>
+      <c r="D98" s="1">
+        <v>93933.683699999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>2013</v>
+      </c>
+      <c r="D99" s="1">
+        <v>96165.581200000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>2014</v>
+      </c>
+      <c r="D100" s="1">
+        <v>127700.6854</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>2015</v>
+      </c>
+      <c r="D101" s="1">
+        <v>175776.6427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102">
+        <v>2013</v>
+      </c>
+      <c r="D102" s="1">
+        <v>78844.169500000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>2012</v>
+      </c>
+      <c r="D103" s="1">
+        <v>99986.852199999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>2014</v>
+      </c>
+      <c r="D104" s="1">
+        <v>110761.6735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>2015</v>
+      </c>
+      <c r="D105" s="1">
+        <v>134386.52799999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>2012</v>
+      </c>
+      <c r="D106" s="1">
+        <v>90667.21256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>2013</v>
+      </c>
+      <c r="D107" s="1">
+        <v>114379.41494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>2014</v>
+      </c>
+      <c r="D108" s="1">
+        <v>138156.88678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>2015</v>
+      </c>
+      <c r="D109" s="1">
+        <v>170994.073</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>2012</v>
+      </c>
+      <c r="D110" s="1">
+        <v>79094.276100000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>2013</v>
+      </c>
+      <c r="D111" s="1">
+        <v>84823.923800000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>2014</v>
+      </c>
+      <c r="D112" s="1">
+        <v>89318.558499999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>2015</v>
+      </c>
+      <c r="D113" s="1">
+        <v>130701.1759</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>2012</v>
+      </c>
+      <c r="D114" s="1">
+        <v>55700.376199999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>2013</v>
+      </c>
+      <c r="D115" s="1">
+        <v>59383.131000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>2014</v>
+      </c>
+      <c r="D116" s="1">
+        <v>77392.821400000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>2015</v>
+      </c>
+      <c r="D117" s="1">
+        <v>115770.9289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>2012</v>
+      </c>
+      <c r="D118" s="1">
+        <v>81319.915179999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>2013</v>
+      </c>
+      <c r="D119" s="1">
+        <v>108732.7954</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>2014</v>
+      </c>
+      <c r="D120" s="1">
+        <v>126695.26298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>2015</v>
+      </c>
+      <c r="D121" s="1">
+        <v>176294.52436000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>2012</v>
+      </c>
+      <c r="D122" s="1">
+        <v>96558.362099999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>2013</v>
+      </c>
+      <c r="D123" s="1">
+        <v>120279.0895</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>2014</v>
+      </c>
+      <c r="D124" s="1">
+        <v>122802.7219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>2015</v>
+      </c>
+      <c r="D125" s="1">
+        <v>168848.66819999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>2012</v>
+      </c>
+      <c r="D126" s="1">
+        <v>88080.008300000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>2013</v>
+      </c>
+      <c r="D127" s="1">
+        <v>100019.59239999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>2014</v>
+      </c>
+      <c r="D128" s="1">
+        <v>110735.77770000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>2015</v>
+      </c>
+      <c r="D129" s="1">
+        <v>163851.32149999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>2013</v>
+      </c>
+      <c r="D130" s="1">
+        <v>103213.735</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>2012</v>
+      </c>
+      <c r="D131" s="1">
+        <v>109308.98176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>2014</v>
+      </c>
+      <c r="D132" s="1">
+        <v>140450.86050000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>2015</v>
+      </c>
+      <c r="D133" s="1">
+        <v>222579.0373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134">
+        <v>2013</v>
+      </c>
+      <c r="D134" s="1">
+        <v>96816.739400000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135">
+        <v>2012</v>
+      </c>
+      <c r="D135" s="1">
+        <v>119531.2429</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>2014</v>
+      </c>
+      <c r="D136" s="1">
+        <v>143203.05290000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>2015</v>
+      </c>
+      <c r="D137" s="1">
+        <v>171768.3786</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>2012</v>
+      </c>
+      <c r="D138" s="1">
+        <v>82423.814599999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139">
+        <v>2013</v>
+      </c>
+      <c r="D139" s="1">
+        <v>107244.24619999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140">
+        <v>2014</v>
+      </c>
+      <c r="D140" s="1">
+        <v>127926.2095</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141">
+        <v>2015</v>
+      </c>
+      <c r="D141" s="1">
+        <v>150278.58960000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>2012</v>
+      </c>
+      <c r="D142" s="1">
+        <v>117852.35189999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143">
+        <v>2013</v>
+      </c>
+      <c r="D143" s="1">
+        <v>134195.981</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144">
+        <v>2014</v>
+      </c>
+      <c r="D144" s="1">
+        <v>134325.11562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145">
+        <v>2015</v>
+      </c>
+      <c r="D145" s="1">
+        <v>181096.72528000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>